--- a/experiment_results/best_case/Elevator/2wise/0.5_best_case.xlsx
+++ b/experiment_results/best_case/Elevator/2wise/0.5_best_case.xlsx
@@ -511,7 +511,7 @@
         <v>312</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -575,7 +575,7 @@
         <v>295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -607,7 +607,7 @@
         <v>285</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -671,7 +671,7 @@
         <v>285</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -703,7 +703,7 @@
         <v>301</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -735,7 +735,7 @@
         <v>284</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -767,7 +767,7 @@
         <v>297</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -799,7 +799,7 @@
         <v>312</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -831,7 +831,7 @@
         <v>312</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -863,7 +863,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -895,7 +895,7 @@
         <v>312</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -927,7 +927,7 @@
         <v>285</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1100,7 +1100,7 @@
         <v>295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -1132,7 +1132,7 @@
         <v>285</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -1196,7 +1196,7 @@
         <v>285</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1260,7 +1260,7 @@
         <v>284</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1292,7 +1292,7 @@
         <v>297</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -1388,7 +1388,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -1452,7 +1452,7 @@
         <v>285</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1625,7 +1625,7 @@
         <v>295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -1657,7 +1657,7 @@
         <v>285</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -1721,7 +1721,7 @@
         <v>285</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1785,7 +1785,7 @@
         <v>284</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1977,7 +1977,7 @@
         <v>285</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2086,7 +2086,7 @@
         <v>312</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -2150,7 +2150,7 @@
         <v>295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2182,7 +2182,7 @@
         <v>285</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -2246,7 +2246,7 @@
         <v>285</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2278,7 +2278,7 @@
         <v>301</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -2310,7 +2310,7 @@
         <v>284</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2342,7 +2342,7 @@
         <v>297</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2374,7 +2374,7 @@
         <v>312</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>449</v>
@@ -2406,7 +2406,7 @@
         <v>312</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2438,7 +2438,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -2470,7 +2470,7 @@
         <v>312</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -2502,7 +2502,7 @@
         <v>285</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2675,7 +2675,7 @@
         <v>295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -2707,7 +2707,7 @@
         <v>285</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -2771,7 +2771,7 @@
         <v>285</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -2835,7 +2835,7 @@
         <v>284</v>
       </c>
       <c r="G10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -2867,7 +2867,7 @@
         <v>297</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>449</v>
@@ -2963,7 +2963,7 @@
         <v>312</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>449</v>
@@ -3027,7 +3027,7 @@
         <v>285</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>449</v>
